--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -17,8 +17,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,15 +358,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D5:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>5456456</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
